--- a/PCL Boxhandschuh/Protractor Evaluation.xlsx
+++ b/PCL Boxhandschuh/Protractor Evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="0" windowWidth="33620" windowHeight="25020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,13 @@
     <t>Erkennungsrate</t>
   </si>
   <si>
-    <t>3D Trajectorie</t>
-  </si>
-  <si>
     <t>Accelerometer</t>
   </si>
   <si>
     <t>DCA</t>
+  </si>
+  <si>
+    <t>3D Trajectory</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -654,7 +654,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22" customHeight="1"/>
@@ -742,7 +742,7 @@
     <row r="8" spans="1:6" ht="22" customHeight="1"/>
     <row r="9" spans="1:6" ht="22" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22" customHeight="1"/>
@@ -834,7 +834,7 @@
     <row r="16" spans="1:6" ht="22" customHeight="1"/>
     <row r="17" spans="1:6" ht="22" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="22" customHeight="1"/>

--- a/PCL Boxhandschuh/Protractor Evaluation.xlsx
+++ b/PCL Boxhandschuh/Protractor Evaluation.xlsx
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -869,18 +869,12 @@
       <c r="B21" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="20">
-        <v>500</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="20">
-        <v>0</v>
-      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="9">
         <f>C21/500</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="22" customHeight="1">
@@ -890,18 +884,12 @@
       <c r="B22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="20">
-        <v>500</v>
-      </c>
-      <c r="E22" s="20">
-        <v>0</v>
-      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="9">
         <f>D22/500</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="22" customHeight="1">
@@ -909,18 +897,12 @@
       <c r="B23" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="20">
-        <v>0</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20">
-        <v>500</v>
-      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="9">
         <f>E23/500</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="22" customHeight="1"/>

--- a/PCL Boxhandschuh/Protractor Evaluation.xlsx
+++ b/PCL Boxhandschuh/Protractor Evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29120" windowHeight="21580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>Punch</t>
   </si>
@@ -33,26 +33,47 @@
     <t>Erkannt</t>
   </si>
   <si>
-    <t>Soll</t>
-  </si>
-  <si>
-    <t>Erkennungsrate</t>
-  </si>
-  <si>
     <t>Accelerometer</t>
   </si>
   <si>
-    <t>DCA</t>
-  </si>
-  <si>
     <t>3D Trajectory</t>
+  </si>
+  <si>
+    <t>Gyroskop</t>
+  </si>
+  <si>
+    <t>Erkennungsrate [%]</t>
+  </si>
+  <si>
+    <t>DCA (bias = 1.0)</t>
+  </si>
+  <si>
+    <t>#Durchläufe</t>
+  </si>
+  <si>
+    <t>Protractor 3D</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Gesten</t>
+  </si>
+  <si>
+    <t>#Messdaten p. Geste</t>
+  </si>
+  <si>
+    <t>#Trainingsdaten p. Geste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,12 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,8 +111,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="20"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -110,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -171,10 +201,56 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -184,7 +260,9 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -196,33 +274,13 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -240,61 +298,105 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="41">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -303,6 +405,18 @@
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -311,6 +425,18 @@
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -640,288 +766,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="6" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="25">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="C9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>321</v>
+      </c>
+      <c r="D11" s="2">
+        <v>175</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="19">
+        <f>C11/5</f>
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>324</v>
+      </c>
+      <c r="E12" s="2">
+        <v>176</v>
+      </c>
+      <c r="F12" s="19">
+        <f>D12/5</f>
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>189</v>
+      </c>
+      <c r="E13" s="2">
+        <v>310</v>
+      </c>
+      <c r="F13" s="19">
+        <f>E13/5</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="19">
+        <f>(C11+D12+E13)/15</f>
+        <v>63.666666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" customHeight="1"/>
+    <row r="16" spans="1:6" ht="17" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
+        <v>500</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <f>C19/5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>168</v>
+      </c>
+      <c r="E20" s="11">
+        <v>332</v>
+      </c>
+      <c r="F20" s="19">
+        <f>D20/5</f>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>500</v>
+      </c>
+      <c r="F21" s="19">
+        <f>E21/5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="19">
+        <f>(C19+D20+E21)/15</f>
+        <v>77.86666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" customHeight="1"/>
+    <row r="24" spans="1:6" ht="17" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" customHeight="1">
+      <c r="A27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <v>438</v>
+      </c>
+      <c r="D27" s="11">
+        <v>62</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="19">
+        <f>C27/5</f>
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>53</v>
+      </c>
+      <c r="D28" s="11">
+        <v>391</v>
+      </c>
+      <c r="E28" s="11">
+        <v>56</v>
+      </c>
+      <c r="F28" s="19">
+        <f>D28/5</f>
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <v>500</v>
+      </c>
+      <c r="F29" s="19">
+        <f>E29/5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="19">
+        <f>(C27+D28+E29)/15</f>
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" customHeight="1"/>
+    <row r="32" spans="1:6" ht="17" customHeight="1">
+      <c r="A32" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="22" customHeight="1"/>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="22" customHeight="1">
-      <c r="C3" s="5"/>
-      <c r="D3" s="7" t="s">
+    <row r="33" spans="1:6" ht="17" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="22" customHeight="1">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E33" s="7"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="22" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>331</v>
-      </c>
-      <c r="D5" s="9">
-        <v>168</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" customHeight="1">
+      <c r="A35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <v>455</v>
+      </c>
+      <c r="D35" s="11">
+        <v>45</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19">
+        <f>C35/5</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" customHeight="1">
+      <c r="A36" s="21"/>
+      <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
-        <f>C5/500</f>
-        <v>0.66200000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="22" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>337</v>
-      </c>
-      <c r="E6" s="9">
-        <v>163</v>
-      </c>
-      <c r="F6" s="9">
-        <f>D6/500</f>
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="22" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9" t="s">
+      <c r="C36" s="11">
+        <v>58</v>
+      </c>
+      <c r="D36" s="11">
+        <v>396</v>
+      </c>
+      <c r="E36" s="11">
+        <v>46</v>
+      </c>
+      <c r="F36" s="19">
+        <f>D36/5</f>
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" customHeight="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>175</v>
-      </c>
-      <c r="E7" s="9">
-        <v>324</v>
-      </c>
-      <c r="F7" s="9">
-        <f>E7/500</f>
-        <v>0.64800000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22" customHeight="1"/>
-    <row r="9" spans="1:6" ht="22" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22" customHeight="1"/>
-    <row r="11" spans="1:6" ht="22" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="22" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
         <v>500</v>
       </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <f>C13/500</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="22" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="20">
-        <v>176</v>
-      </c>
-      <c r="E14" s="20">
-        <v>324</v>
-      </c>
-      <c r="F14" s="9">
-        <f>D14/500</f>
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="22" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
-        <v>500</v>
-      </c>
-      <c r="F15" s="9">
-        <f>E15/500</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="22" customHeight="1"/>
-    <row r="17" spans="1:6" ht="22" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="22" customHeight="1"/>
-    <row r="19" spans="1:6" ht="22" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" ht="22" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="22" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="9">
-        <f>C21/500</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="9">
-        <f>D22/500</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="22" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="9">
-        <f>E23/500</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="22" customHeight="1"/>
-    <row r="25" spans="1:6" ht="22" customHeight="1"/>
-    <row r="26" spans="1:6" ht="22" customHeight="1"/>
-    <row r="27" spans="1:6" ht="22" customHeight="1"/>
-    <row r="28" spans="1:6" ht="22" customHeight="1"/>
-    <row r="29" spans="1:6" ht="22" customHeight="1"/>
-    <row r="30" spans="1:6" ht="22" customHeight="1"/>
-    <row r="31" spans="1:6" ht="22" customHeight="1"/>
-    <row r="32" spans="1:6" ht="22" customHeight="1"/>
-    <row r="33" ht="22" customHeight="1"/>
-    <row r="34" ht="22" customHeight="1"/>
-    <row r="35" ht="22" customHeight="1"/>
-    <row r="36" ht="22" customHeight="1"/>
-    <row r="37" ht="22" customHeight="1"/>
-    <row r="38" ht="22" customHeight="1"/>
+      <c r="F37" s="19">
+        <f>E37/5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="22" customHeight="1">
+      <c r="E38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="19">
+        <f>(C35+D36+E37)/15</f>
+        <v>90.066666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="22" customHeight="1"/>
+    <row r="40" spans="1:6" ht="22" customHeight="1"/>
+    <row r="41" spans="1:6" ht="22" customHeight="1"/>
+    <row r="42" spans="1:6" ht="22" customHeight="1"/>
+    <row r="43" spans="1:6" ht="22" customHeight="1"/>
+    <row r="44" spans="1:6" ht="22" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <mergeCells count="7">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C25:E25"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/PCL Boxhandschuh/Protractor Evaluation.xlsx
+++ b/PCL Boxhandschuh/Protractor Evaluation.xlsx
@@ -290,7 +290,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -367,17 +367,17 @@
         <v>6</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F11" s="9" t="n">
         <f aca="false">C11/5</f>
-        <v>37.4</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -386,17 +386,17 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>244</v>
+        <v>385</v>
       </c>
       <c r="F12" s="9" t="n">
         <f aca="false">D12/5</f>
-        <v>38.2</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -405,17 +405,17 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="F13" s="9" t="n">
         <f aca="false">E13/5</f>
-        <v>33.8</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -428,7 +428,7 @@
       </c>
       <c r="F14" s="9" t="n">
         <f aca="false">(C11+D12+E13)/15</f>
-        <v>36.4666666666667</v>
+        <v>41.0666666666667</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/PCL Boxhandschuh/Protractor Evaluation.xlsx
+++ b/PCL Boxhandschuh/Protractor Evaluation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="305" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="374" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" state="visible" r:id="rId2"/>
@@ -201,7 +201,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -220,10 +220,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -289,8 +285,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -355,80 +351,80 @@
       <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F11" s="9" t="n">
+        <v>85</v>
+      </c>
+      <c r="F11" s="8" t="n">
         <f aca="false">C11/5</f>
-        <v>46.6</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>385</v>
-      </c>
-      <c r="F12" s="9" t="n">
+        <v>387</v>
+      </c>
+      <c r="F12" s="8" t="n">
         <f aca="false">D12/5</f>
-        <v>17.8</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>294</v>
-      </c>
-      <c r="F13" s="9" t="n">
+        <v>321</v>
+      </c>
+      <c r="F13" s="8" t="n">
         <f aca="false">E13/5</f>
-        <v>58.8</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="8" t="n">
         <f aca="false">(C11+D12+E13)/15</f>
-        <v>41.0666666666667</v>
+        <v>41.1333333333333</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -449,89 +445,89 @@
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="13" t="n">
-        <v>193</v>
-      </c>
-      <c r="D19" s="13" t="n">
-        <v>218</v>
-      </c>
-      <c r="E19" s="13" t="n">
-        <v>89</v>
-      </c>
-      <c r="F19" s="9" t="n">
+      <c r="C19" s="12" t="n">
+        <v>151</v>
+      </c>
+      <c r="D19" s="12" t="n">
+        <v>215</v>
+      </c>
+      <c r="E19" s="12" t="n">
+        <v>134</v>
+      </c>
+      <c r="F19" s="8" t="n">
         <f aca="false">C19/5</f>
-        <v>38.6</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" s="13" t="n">
-        <v>64</v>
-      </c>
-      <c r="E20" s="13" t="n">
-        <v>426</v>
-      </c>
-      <c r="F20" s="9" t="n">
+      <c r="C20" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E20" s="12" t="n">
+        <v>418</v>
+      </c>
+      <c r="F20" s="8" t="n">
         <f aca="false">D20/5</f>
-        <v>12.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="13" t="n">
+      <c r="C21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="13" t="n">
-        <v>114</v>
-      </c>
-      <c r="E21" s="13" t="n">
-        <v>386</v>
-      </c>
-      <c r="F21" s="9" t="n">
+      <c r="D21" s="12" t="n">
+        <v>129</v>
+      </c>
+      <c r="E21" s="12" t="n">
+        <v>371</v>
+      </c>
+      <c r="F21" s="8" t="n">
         <f aca="false">E21/5</f>
-        <v>77.2</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="8" t="n">
         <f aca="false">(C19+D20+E21)/15</f>
-        <v>42.8666666666667</v>
+        <v>40.1333333333333</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -552,89 +548,89 @@
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="13" t="n">
-        <v>246</v>
-      </c>
-      <c r="D27" s="13" t="n">
-        <v>185</v>
-      </c>
-      <c r="E27" s="13" t="n">
-        <v>69</v>
-      </c>
-      <c r="F27" s="9" t="n">
+      <c r="C27" s="12" t="n">
+        <v>187</v>
+      </c>
+      <c r="D27" s="12" t="n">
+        <v>245</v>
+      </c>
+      <c r="E27" s="12" t="n">
+        <v>68</v>
+      </c>
+      <c r="F27" s="8" t="n">
         <f aca="false">C27/5</f>
-        <v>49.2</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="13" t="n">
-        <v>190</v>
-      </c>
-      <c r="D28" s="13" t="n">
-        <v>156</v>
-      </c>
-      <c r="E28" s="13" t="n">
-        <v>154</v>
-      </c>
-      <c r="F28" s="9" t="n">
+      <c r="C28" s="12" t="n">
+        <v>195</v>
+      </c>
+      <c r="D28" s="12" t="n">
+        <v>146</v>
+      </c>
+      <c r="E28" s="12" t="n">
+        <v>159</v>
+      </c>
+      <c r="F28" s="8" t="n">
         <f aca="false">D28/5</f>
-        <v>31.2</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D29" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="E29" s="13" t="n">
-        <v>470</v>
-      </c>
-      <c r="F29" s="9" t="n">
+      <c r="C29" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" s="12" t="n">
+        <v>43</v>
+      </c>
+      <c r="E29" s="12" t="n">
+        <v>446</v>
+      </c>
+      <c r="F29" s="8" t="n">
         <f aca="false">E29/5</f>
-        <v>94</v>
+        <v>89.2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="8" t="n">
         <f aca="false">(C27+D28+E29)/15</f>
-        <v>58.1333333333333</v>
+        <v>51.9333333333333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -645,95 +641,95 @@
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="16"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="13" t="n">
-        <v>190</v>
-      </c>
-      <c r="D35" s="13" t="n">
-        <v>121</v>
-      </c>
-      <c r="E35" s="13" t="n">
-        <v>189</v>
-      </c>
-      <c r="F35" s="9" t="n">
+      <c r="C35" s="12" t="n">
+        <v>166</v>
+      </c>
+      <c r="D35" s="12" t="n">
+        <v>151</v>
+      </c>
+      <c r="E35" s="12" t="n">
+        <v>183</v>
+      </c>
+      <c r="F35" s="8" t="n">
         <f aca="false">C35/5</f>
-        <v>38</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="13" t="n">
-        <v>222</v>
-      </c>
-      <c r="D36" s="13" t="n">
-        <v>123</v>
-      </c>
-      <c r="E36" s="13" t="n">
-        <v>155</v>
-      </c>
-      <c r="F36" s="9" t="n">
+      <c r="C36" s="12" t="n">
+        <v>191</v>
+      </c>
+      <c r="D36" s="12" t="n">
+        <v>144</v>
+      </c>
+      <c r="E36" s="12" t="n">
+        <v>165</v>
+      </c>
+      <c r="F36" s="8" t="n">
         <f aca="false">D36/5</f>
-        <v>24.6</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D37" s="13" t="n">
-        <v>182</v>
-      </c>
-      <c r="E37" s="13" t="n">
-        <v>218</v>
-      </c>
-      <c r="F37" s="9" t="n">
+      <c r="C37" s="12" t="n">
+        <v>76</v>
+      </c>
+      <c r="D37" s="12" t="n">
+        <v>195</v>
+      </c>
+      <c r="E37" s="12" t="n">
+        <v>229</v>
+      </c>
+      <c r="F37" s="8" t="n">
         <f aca="false">E37/5</f>
-        <v>43.6</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="9" t="n">
+      <c r="F38" s="8" t="n">
         <f aca="false">(C35+D36+E37)/15</f>
-        <v>35.4</v>
+        <v>35.9333333333333</v>
       </c>
     </row>
   </sheetData>
